--- a/schedule/temp/electives/f7fbf9caa7e379786791fe78896fba3c810602bc.xlsx
+++ b/schedule/temp/electives/f7fbf9caa7e379786791fe78896fba3c810602bc.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="410">
   <si>
     <t>Monday</t>
   </si>
@@ -1338,6 +1338,12 @@
   </si>
   <si>
     <t>А1-1 (BS) start at 19:40 (102)</t>
+  </si>
+  <si>
+    <t>A2-2 (MS) 104</t>
+  </si>
+  <si>
+    <t>A1-2 (MS) 104</t>
   </si>
 </sst>
 </file>
@@ -10410,9 +10416,7 @@
       <c r="A68" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="B68" s="36" t="s">
-        <v>393</v>
-      </c>
+      <c r="B68" s="36"/>
       <c r="C68" s="17"/>
       <c r="D68" s="32" t="s">
         <v>400</v>
@@ -10426,9 +10430,7 @@
       <c r="A69" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="B69" s="36" t="s">
-        <v>394</v>
-      </c>
+      <c r="B69" s="36"/>
       <c r="C69" s="17"/>
       <c r="D69" s="18"/>
       <c r="E69" s="17"/>
@@ -10470,9 +10472,7 @@
       <c r="A72" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="B72" s="32" t="s">
-        <v>398</v>
-      </c>
+      <c r="B72" s="32"/>
       <c r="C72" s="17"/>
       <c r="D72" s="77"/>
       <c r="E72" s="32" t="s">
@@ -10548,9 +10548,7 @@
       <c r="A77" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="B77" s="36" t="s">
-        <v>393</v>
-      </c>
+      <c r="B77" s="77"/>
       <c r="C77" s="17"/>
       <c r="D77" s="32" t="s">
         <v>393</v>
@@ -10563,9 +10561,6 @@
     <row r="78">
       <c r="A78" s="16" t="s">
         <v>368</v>
-      </c>
-      <c r="B78" s="36" t="s">
-        <v>394</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="18"/>
@@ -11242,7 +11237,9 @@
         <v>393</v>
       </c>
       <c r="C122" s="17"/>
-      <c r="D122" s="32"/>
+      <c r="D122" s="32" t="s">
+        <v>408</v>
+      </c>
       <c r="E122" s="19"/>
       <c r="F122" s="17"/>
       <c r="G122" s="60"/>
@@ -11269,7 +11266,9 @@
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
-      <c r="E124" s="114"/>
+      <c r="E124" s="105" t="s">
+        <v>409</v>
+      </c>
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
       <c r="H124" s="46"/>
@@ -11280,7 +11279,9 @@
       </c>
       <c r="B125" s="19"/>
       <c r="C125" s="17"/>
-      <c r="D125" s="32"/>
+      <c r="D125" s="32" t="s">
+        <v>396</v>
+      </c>
       <c r="E125" s="36" t="s">
         <v>397</v>
       </c>
@@ -11368,7 +11369,9 @@
       <c r="A131" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="B131" s="36"/>
+      <c r="B131" s="36" t="s">
+        <v>408</v>
+      </c>
       <c r="C131" s="17"/>
       <c r="D131" s="32"/>
       <c r="E131" s="19"/>
@@ -11380,7 +11383,9 @@
       <c r="A132" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="B132" s="36"/>
+      <c r="B132" s="36" t="s">
+        <v>409</v>
+      </c>
       <c r="C132" s="17"/>
       <c r="D132" s="18"/>
       <c r="E132" s="17"/>
